--- a/similarities/split_global/harmonic_similarity_timestamps_43.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_43.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,766 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:01:03.460000', '0:01:05.780000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
+          <t>('0:00:56.600000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=56.6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj', 'D:min/A']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:50.130000', '0:01:05.020000')]</t>
+          <t>('0:01:42.160000', '0:01:53.900000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:14.400000', '0:01:32.280000')]</t>
+          <t>('0:00:35.140000', '0:00:42.320000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=102.16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:00:18.071496', '0:00:25.606371')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:06.040000', '0:01:19')]</t>
+          <t>('0:00:29.340000', '0:00:32.080000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=29.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:hdim7/D', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:12.200000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=12.2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+          <t>('0:04:11.500000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A/3', 'D/7', 'G/3']]</t>
+          <t>['E', 'A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:01.257000', '0:01:04.972000')]</t>
+          <t>('0:00:09.162102', '0:00:17.463236')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:03:46.220000', '0:03:49.640000')]</t>
+          <t>('0:01:51.920000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=61.257']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=226.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:23.040000', '0:00:32.800000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:07.400000', '0:00:22.520000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:34.380000', '0:00:41.200000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:39.900000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=39.9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>isophonics_166</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:17.839297', '0:00:30.215532')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-166#t=17.839297</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Db/2', 'Ab:maj', 'Ab:7']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A:7/b7']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:30.236000', '0:01:38.612000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:03.382018', '0:01:11.149092')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-139#t=63.382018']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:48.480000', '0:01:00.840000'), ('0:00:41.960000', '0:00:51.360000')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.860000', '0:00:28.920000'), ('0:01:04.420000', '0:01:09.700000')]</t>
+          <t>('0:01:34.800000', '0:01:46.960000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=48.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=41.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=21.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=64.42']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=94.8</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:00:08.980000', '0:00:22.060000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=8.98</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3', 'F']]</t>
+          <t>['D/3', 'G', 'D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+          <t>('0:00:57.251357', '0:01:13.909779')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
